--- a/Investment/THS/AutoTrade/data/position/Account_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Account_position.xlsx
@@ -482,22 +482,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3315.1100</t>
+          <t>15980.8100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9468</t>
+          <t>0.7402</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62329.3100</t>
+          <t>61505.8100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>59014.200</t>
+          <t>45525.000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-18 17:34:20</t>
+          <t>2025-09-19 10:23:59</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17843.4400</t>
+          <t>17848.2300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2264</t>
+          <t>0.2252</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23064.4400</t>
+          <t>23037.2300</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5221.00</t>
+          <t>5189.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-18 17:34:20</t>
+          <t>2025-09-19 10:24:00</t>
         </is>
       </c>
     </row>
@@ -556,22 +556,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6539.1800</t>
+          <t>4739.0800</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6466</t>
+          <t>0.7401</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18506.1800</t>
+          <t>18234.0800</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11967.00</t>
+          <t>13495.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-18 17:34:20</t>
+          <t>2025-09-19 10:23:59</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-18 17:34:20</t>
+          <t>2025-09-19 10:24:00</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1449.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -749,57 +749,55 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.1810</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.49</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>-1.0000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-69.1300</t>
+          <t>-99.9600</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.0455</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.1211</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-69.13000</t>
+          <t>-99.96010</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-69.13000</t>
+          <t>-99.96010</t>
         </is>
       </c>
     </row>
@@ -821,7 +819,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2602.00</t>
+          <t>2526.00</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -834,22 +832,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.2174</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>18.72</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0567</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -859,27 +855,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-67.2300</t>
+          <t>-143.2300</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.0252</t>
+          <t>-0.0537</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2174</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-67.23000</t>
+          <t>-143.23000</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-67.23000</t>
+          <t>-137.23000</t>
         </is>
       </c>
     </row>
@@ -901,7 +897,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4363.00</t>
+          <t>4316.00</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -914,22 +910,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>43.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.3646</t>
-        </is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>31.98</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0934</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -939,27 +933,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-407.5400</t>
+          <t>-454.5400</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.0854</t>
+          <t>-0.0953</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3646</t>
+          <t>0.3198</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-169.13000</t>
+          <t>-219.13000</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-407.54000</t>
+          <t>-446.54000</t>
         </is>
       </c>
     </row>
@@ -981,7 +975,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2776.00</t>
+          <t>2679.00</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -994,22 +988,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>26.79</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2320</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>19.85</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.0662</t>
+          <t>-0.0324</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1019,27 +1011,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>183.7800</t>
+          <t>86.7800</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>0.1985</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>122.29000</t>
+          <t>17.29000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>238.08000</t>
+          <t>144.08000</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1043,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002177</t>
+          <t>002484</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>江海股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>777.00</t>
+          <t>3211.00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1069,27 +1061,25 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15.6280</t>
+          <t>32.1830</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>32.11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>23.79</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.0113</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1099,27 +1089,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-785.7800</t>
+          <t>-7.2700</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.5028</t>
+          <t>-0.0023</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.2379</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-50.38000</t>
+          <t>-11.33790</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-785.78000</t>
+          <t>7.66210</t>
         </is>
       </c>
     </row>
@@ -1131,17 +1121,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002846</t>
+          <t>002177</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英联股份</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>763.00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1149,137 +1139,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>15.6280</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19.79</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5.65</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-1.0000</t>
+          <t>1.0482</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0.3500</t>
+          <t>-799.7800</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.5118</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.34820</t>
+          <t>-63.38000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-0.34820</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000063</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中兴通讯</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>44.25</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-1.0000</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>85.9800</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>85.97050</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>85.97050</t>
+          <t>-798.78000</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1300,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>603968</t>
+          <t>002998</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>786.00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -1410,57 +1318,55 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.5900</t>
+          <t>8.0770</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.73</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-19.0400</t>
+          <t>-21.5300</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-4.1300</t>
+          <t>-0.0267</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-25.56110</t>
+          <t>-28.00000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-32.12110</t>
+          <t>95.54000</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1378,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>002856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>800.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -1490,57 +1396,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.0770</t>
+          <t>10.7200</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0677</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-7.5400</t>
+          <t>-61.8900</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.0093</t>
+          <t>-6.3400</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-17.00000</t>
+          <t>-61.66930</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>108.54000</t>
+          <t>-61.66930</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1456,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002856</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美芝股份</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1030.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1570,12 +1474,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.7290</t>
+          <t>14.1400</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1583,44 +1487,42 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0417</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-42.7000</t>
+          <t>-38.1300</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.0398</t>
+          <t>-3.5400</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-42.09000</t>
+          <t>-25.71900</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-42.09000</t>
+          <t>-30.83900</t>
         </is>
       </c>
     </row>
@@ -1632,17 +1534,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1391.00</t>
+          <t>622.00</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1650,27 +1552,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.1520</t>
+          <t>6.7170</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1.37</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.0799</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1680,27 +1580,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-23.9400</t>
+          <t>-49.4200</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.0169</t>
+          <t>-0.0736</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-10.93000</t>
+          <t>-39.00000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-16.05000</t>
+          <t>-56.51000</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>638.00</t>
+          <t>1230.00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1730,27 +1630,25 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.7170</t>
+          <t>12.5090</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2.7</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1760,27 +1658,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-33.4300</t>
+          <t>-20.7000</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.0498</t>
+          <t>-0.0165</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-24.00000</t>
+          <t>-65.00000</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-40.51000</t>
+          <t>-18.98000</t>
         </is>
       </c>
     </row>
@@ -1792,17 +1690,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1261.00</t>
+          <t>1612.00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1810,57 +1708,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.5090</t>
+          <t>8.4890</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3.54</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.0080</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10.2800</t>
+          <t>-85.6600</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>-0.0505</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-37.00000</t>
+          <t>-77.07000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>11.02000</t>
+          <t>-82.71000</t>
         </is>
       </c>
     </row>
@@ -1872,17 +1768,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1636.00</t>
+          <t>745.00</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1890,57 +1786,55 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.4890</t>
+          <t>7.7970</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1.64</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-61.6700</t>
+          <t>-34.5000</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.0363</t>
+          <t>-0.0442</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-59.07000</t>
+          <t>-43.52000</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-60.71000</t>
+          <t>-7.12000</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1846,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>600917</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>764.00</t>
+          <t>570.00</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1970,27 +1864,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.7970</t>
+          <t>5.8060</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1.25</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2000,27 +1892,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-15.5100</t>
+          <t>-10.3900</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-0.0199</t>
+          <t>-0.0179</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-28.52000</t>
+          <t>-10.05000</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>10.88000</t>
+          <t>-7.22000</t>
         </is>
       </c>
     </row>
@@ -2032,17 +1924,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>600917</t>
+          <t>511380</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>573.00</t>
+          <t>11835.000</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2050,57 +1942,55 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.8060</t>
+          <t>12.0360</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>13.150</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>26</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>-0.0847</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>900</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-7.3900</t>
+          <t>1002.3700</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.0127</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.2600</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-7.05000</t>
+          <t>-189.90000</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-4.22000</t>
+          <t>1006.09000</t>
         </is>
       </c>
     </row>
@@ -2112,17 +2002,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>511380</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11923.200</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2130,57 +2020,55 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.0360</t>
+          <t>9.4600</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13.248</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.2020</t>
-        </is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-0.0915</t>
+          <t>0.0384</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1090.5700</t>
+          <t>-30.8200</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.1007</t>
+          <t>-3.7000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.2020</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-97.20000</t>
+          <t>-36.52490</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1090.69000</t>
+          <t>49.99510</t>
         </is>
       </c>
     </row>
@@ -2192,17 +2080,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>603172</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>934.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2210,57 +2098,55 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.4680</t>
+          <t>17.9200</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0394</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-12.6300</t>
+          <t>-78.3600</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-0.0133</t>
+          <t>-3.7900</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-18.00000</t>
+          <t>-88.31270</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>68.52000</t>
+          <t>-160.61270</t>
         </is>
       </c>
     </row>
@@ -2272,17 +2158,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>603172</t>
+          <t>600080</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1750.00</t>
+          <t>705.00</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -2290,27 +2176,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17.9340</t>
+          <t>7.3270</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17.50</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1.55</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2320,27 +2204,27 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-43.1800</t>
+          <t>-27.4700</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.0241</t>
+          <t>-0.0375</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-52.33000</t>
+          <t>-22.00000</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-124.63000</t>
+          <t>-48.55000</t>
         </is>
       </c>
     </row>
@@ -2352,17 +2236,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>600080</t>
+          <t>603331</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>715.00</t>
+          <t>1055.00</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -2370,27 +2254,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.3270</t>
+          <t>10.8890</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2.32</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2400,27 +2282,27 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-17.4800</t>
+          <t>-33.7100</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.0239</t>
+          <t>-0.0310</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-13.00000</t>
+          <t>-31.09000</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-36.55000</t>
+          <t>35.15000</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2314,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603331</t>
+          <t>603137</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>百达精工</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1075.00</t>
+          <t>1397.00</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2450,27 +2332,25 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.8890</t>
+          <t>14.8120</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3.07</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0603</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2480,27 +2360,27 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-13.7200</t>
+          <t>-83.9500</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-0.0126</t>
+          <t>-0.0567</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-13.09000</t>
+          <t>-17.00000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>54.15000</t>
+          <t>233.71000</t>
         </is>
       </c>
     </row>
@@ -2512,17 +2392,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>504.00</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2530,27 +2410,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14.8120</t>
+          <t>5.2750</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1.11</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2560,27 +2438,27 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-80.9500</t>
+          <t>-23.3300</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-0.0547</t>
+          <t>-0.0442</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-19.00000</t>
+          <t>-23.34000</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>237.71000</t>
+          <t>-18.72000</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2470,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>511.00</t>
+          <t>4492.00</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2610,57 +2488,55 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.2750</t>
+          <t>23.2520</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>22.46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>9.869999999999999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-16.3400</t>
+          <t>-158.0300</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-0.0310</t>
+          <t>-0.0340</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-17.34000</t>
+          <t>-102.20000</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-13.72000</t>
+          <t>-24.95000</t>
         </is>
       </c>
     </row>
@@ -2672,17 +2548,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4590.00</t>
+          <t>2180.00</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2690,57 +2566,55 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>23.2520</t>
+          <t>23.4620</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>21.80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4.79</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-60.0900</t>
+          <t>-165.9200</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-0.0129</t>
+          <t>-0.0707</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.0778</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-40.20000</t>
+          <t>17.00000</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>63.05000</t>
+          <t>-165.64000</t>
         </is>
       </c>
     </row>
@@ -2752,17 +2626,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2172.00</t>
+          <t>1803.00</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2770,27 +2644,25 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>23.4620</t>
+          <t>18.5950</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>18.03</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3.96</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.0802</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2800,27 +2672,27 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-173.9100</t>
+          <t>-56.2100</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-0.0741</t>
+          <t>-0.0302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.00000</t>
+          <t>-57.24000</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-172.64000</t>
+          <t>-84.40000</t>
         </is>
       </c>
     </row>
@@ -2832,17 +2704,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>600925</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1845.00</t>
+          <t>492.00</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2850,27 +2722,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18.5950</t>
+          <t>4.9650</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1.08</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2880,27 +2750,27 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-14.2400</t>
+          <t>-4.3300</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-0.0077</t>
+          <t>-0.0087</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-21.24000</t>
+          <t>-5.00000</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-44.40000</t>
+          <t>-2.37000</t>
         </is>
       </c>
     </row>
@@ -2912,17 +2782,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>492.00</t>
+          <t>902.00</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2930,57 +2800,55 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.9650</t>
+          <t>4.6260</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1.98</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-4.3300</t>
+          <t>-22.9200</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-0.0087</t>
+          <t>-0.0248</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-5.00000</t>
+          <t>-28.00000</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-2.37000</t>
+          <t>-13.00000</t>
         </is>
       </c>
     </row>
@@ -2992,17 +2860,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>000785</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>920.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -3010,57 +2878,55 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.6260</t>
+          <t>3.3200</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-4.9300</t>
+          <t>-273.3800</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.0053</t>
+          <t>-5.4200</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-12.00000</t>
+          <t>-257.31880</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3.00000</t>
+          <t>-242.13880</t>
         </is>
       </c>
     </row>
@@ -3072,17 +2938,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4845.00</t>
+          <t>4480.00</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -3090,57 +2956,55 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.3220</t>
+          <t>4.6030</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.0821</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>9.84</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-138.2500</t>
+          <t>-123.0000</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-0.0277</t>
+          <t>-0.0267</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.0821</t>
+          <t>0.0984</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-119.62000</t>
+          <t>-112.92000</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-104.44000</t>
+          <t>-124.00000</t>
         </is>
       </c>
     </row>
@@ -3152,17 +3016,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>730.00</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3170,12 +3034,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.6100</t>
+          <t>7.5170</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3183,44 +3047,42 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="I24" t="n">
+        <v>1.6</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.5600</t>
+          <t>-21.4900</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-1.3900</t>
+          <t>-0.0286</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.76200</t>
+          <t>-19.06000</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-2.18800</t>
+          <t>-29.58000</t>
         </is>
       </c>
     </row>
@@ -3232,17 +3094,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>603322</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4660.00</t>
+          <t>4123.00</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3250,57 +3112,55 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.6030</t>
+          <t>39.9090</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>41.23</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>9.06</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.0122</t>
+          <t>-0.0320</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>56.8800</t>
+          <t>132.2500</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>67.08000</t>
+          <t>141.66000</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>76.00000</t>
+          <t>-183.00000</t>
         </is>
       </c>
     </row>
@@ -3312,17 +3172,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>644.00</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -3330,57 +3190,55 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.4600</t>
+          <t>6.5370</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1.41</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.0312</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>39.2800</t>
+          <t>-9.4300</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3.2200</t>
+          <t>-0.0144</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>39.48960</t>
+          <t>-23.00000</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>44.47960</t>
+          <t>182.69000</t>
         </is>
       </c>
     </row>
@@ -3392,17 +3250,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>002890</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>737.00</t>
+          <t>1507.00</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -3410,27 +3268,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.5170</t>
+          <t>14.6420</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3.31</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>-0.0284</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3440,27 +3296,27 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-14.4900</t>
+          <t>43.0000</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-0.0193</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-14.06000</t>
+          <t>45.88000</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-24.58000</t>
+          <t>43.88000</t>
         </is>
       </c>
     </row>
@@ -3472,17 +3328,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>603322</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4133.00</t>
+          <t>493.00</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -3490,27 +3346,25 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>39.9090</t>
+          <t>5.0150</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>41.33</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.0700</t>
-        </is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1.08</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-0.0344</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3520,27 +3374,27 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>142.2400</t>
+          <t>-8.3300</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.0356</t>
+          <t>-0.0166</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>144.66000</t>
+          <t>-11.00000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-179.00000</t>
+          <t>23.95000</t>
         </is>
       </c>
     </row>
@@ -3552,17 +3406,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>605567</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>春雪食品</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>661.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -3570,57 +3424,55 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6.5370</t>
+          <t>10.4300</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-0.0110</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7.5500</t>
+          <t>-51.8700</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>-5.4700</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-10.00000</t>
+          <t>-51.65840</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>200.69000</t>
+          <t>186.62160</t>
         </is>
       </c>
     </row>
@@ -3632,17 +3484,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002890</t>
+          <t>603122</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>弘宇股份</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1510.00</t>
+          <t>668.00</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3650,27 +3502,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14.6420</t>
+          <t>6.8670</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1.47</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-0.0303</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3680,27 +3530,27 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>45.9900</t>
+          <t>-18.4500</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>-0.0269</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>46.88000</t>
+          <t>-17.06000</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>46.88000</t>
+          <t>-33.96000</t>
         </is>
       </c>
     </row>
@@ -3712,17 +3562,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>001260</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>1950.00</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3730,27 +3580,25 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.0150</t>
+          <t>20.2150</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4.28</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3760,27 +3608,27 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-1.3300</t>
+          <t>-71.3200</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-0.0027</t>
+          <t>-0.0353</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-5.00000</t>
+          <t>-74.17000</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>29.95000</t>
+          <t>-61.50000</t>
         </is>
       </c>
     </row>
@@ -3792,17 +3640,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>605567</t>
+          <t>600137</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>春雪食品</t>
+          <t>浪莎股份</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1004.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -3810,377 +3658,55 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.4390</t>
+          <t>19.3000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>18.64</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-39.6800</t>
+          <t>-55.4600</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-0.0380</t>
+          <t>-3.4200</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-39.09000</t>
+          <t>-55.23490</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>199.19000</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>603122</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>684.00</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.8670</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-2.4600</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>-0.0036</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>-2.06000</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>-17.96000</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.6700</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-6.6500</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>-2.7000</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-6.43880</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>-36.21880</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1980.00</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>20.2150</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-41.3300</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>-0.0204</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-40.17000</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-34.50000</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>600137</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>浪莎股份</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1880.00</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>19.3150</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>18.80</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-51.2600</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>-0.0265</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-50.16000</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-50.16000</t>
+          <t>-55.23490</t>
         </is>
       </c>
     </row>
@@ -4195,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4303,7 +3829,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5221.00</t>
+          <t>5189.00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -4316,132 +3842,50 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>52.21</t>
+          <t>51.89</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-212.5100</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-0.0393</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-180.5100</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-0.0334</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.0000</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-180.51000</t>
+          <t>-231.51000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-180.51000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000426</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业银锡</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-1.0000</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>84.5400</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-99.47310</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>89.30690</t>
+          <t>-193.51000</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Account_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Account_position.xlsx
@@ -482,22 +482,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15980.8100</t>
+          <t>15905.5100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7402</t>
+          <t>0.7427</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61505.8100</t>
+          <t>61816.8100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45525.000</t>
+          <t>45911.300</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-19 10:23:59</t>
+          <t>2025-09-19 21:56:25</t>
         </is>
       </c>
     </row>
@@ -519,22 +519,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17848.2300</t>
+          <t>23019.1500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2252</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23037.2300</t>
+          <t>23019.1500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5189.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-19 10:24:00</t>
+          <t>2025-09-19 21:56:25</t>
         </is>
       </c>
     </row>
@@ -556,22 +556,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4739.0800</t>
+          <t>4739.4300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7401</t>
+          <t>0.7376</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18234.0800</t>
+          <t>18060.4300</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13495.00</t>
+          <t>13321.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-19 10:23:59</t>
+          <t>2025-09-19 21:56:23</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-19 10:24:00</t>
+          <t>2025-09-19 21:56:26</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2526.00</t>
+          <t>2472.00</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -832,7 +832,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25.26</t>
+          <t>24.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -841,11 +841,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18.72</v>
+        <v>18.56</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0567</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -855,27 +855,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-143.2300</t>
+          <t>-197.2300</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.0537</t>
+          <t>-0.0739</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.1872</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-143.23000</t>
+          <t>-197.23000</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-137.23000</t>
+          <t>-197.23000</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4316.00</t>
+          <t>4274.00</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>43.16</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -919,11 +919,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>31.98</v>
+        <v>32.08</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.1162</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -933,27 +933,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-454.5400</t>
+          <t>-496.5400</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.0953</t>
+          <t>-0.1041</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3198</t>
+          <t>0.3208</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-219.13000</t>
+          <t>-258.13000</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-446.54000</t>
+          <t>-496.54000</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2679.00</t>
+          <t>2650.00</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26.79</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -997,11 +997,11 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19.85</v>
+        <v>19.89</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.0324</t>
+          <t>-0.0218</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1011,27 +1011,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>86.7800</t>
+          <t>57.7800</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.1985</t>
+          <t>0.1989</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>17.29000</t>
+          <t>-3.71000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>144.08000</t>
+          <t>112.08000</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3211.00</t>
+          <t>3162.00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>32.11</t>
+          <t>31.62</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1075,11 +1075,11 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>23.79</v>
+        <v>23.74</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1089,27 +1089,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-7.2700</t>
+          <t>-56.2700</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.0023</t>
+          <t>-0.0175</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.2379</t>
+          <t>0.2374</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-11.33790</t>
+          <t>-56.33790</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>7.66210</t>
+          <t>-56.33790</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5.65</v>
+        <v>5.73</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-63.38000</t>
+          <t>-64.38000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-798.78000</t>
+          <t>-799.78000</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>786.00</t>
+          <t>805.00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1332,11 +1332,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1346,27 +1346,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-21.5300</t>
+          <t>-2.5400</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.0267</t>
+          <t>-0.0031</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-28.00000</t>
+          <t>-12.00000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>95.54000</t>
+          <t>113.54000</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0677</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-61.8900</t>
+          <t>-61.6900</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-6.3400</t>
+          <t>-5.4100</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-61.66930</t>
+          <t>-61.69000</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-61.66930</t>
+          <t>-61.69000</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-38.1300</t>
+          <t>-37.9300</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-3.5400</t>
+          <t>-2.5500</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-25.71900</t>
+          <t>-25.74000</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-30.83900</t>
+          <t>-30.86000</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>622.00</t>
+          <t>631.00</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0799</t>
+          <t>0.0645</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-49.4200</t>
+          <t>-40.4300</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.0736</t>
+          <t>-0.0602</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-39.00000</t>
+          <t>-31.00000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-56.51000</t>
+          <t>-47.51000</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1230.00</t>
+          <t>1239.00</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-20.7000</t>
+          <t>-11.7100</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.0165</t>
+          <t>-0.0094</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-65.00000</t>
+          <t>-59.00000</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-18.98000</t>
+          <t>-10.98000</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1612.00</t>
+          <t>1640.00</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1722,11 +1722,11 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3.54</v>
+        <v>3.57</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1736,27 +1736,27 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-85.6600</t>
+          <t>-57.6700</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.0505</t>
+          <t>-0.0340</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-77.07000</t>
+          <t>-55.07000</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-82.71000</t>
+          <t>-56.71000</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>745.00</t>
+          <t>756.00</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1800,11 +1800,11 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0466</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1814,27 +1814,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-34.5000</t>
+          <t>-23.5100</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.0442</t>
+          <t>-0.0302</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-43.52000</t>
+          <t>-36.52000</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-7.12000</t>
+          <t>2.88000</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>570.00</t>
+          <t>575.00</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-10.3900</t>
+          <t>-5.3900</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-0.0179</t>
+          <t>-0.0093</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-10.05000</t>
+          <t>-5.05000</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-7.22000</t>
+          <t>-2.22000</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11835.000</t>
+          <t>11841.300</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.150</t>
+          <t>13.157</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>25.79</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.0847</t>
+          <t>-0.0852</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1970,27 +1970,27 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1002.3700</t>
+          <t>1008.6700</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.0931</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.2600</t>
+          <t>0.2579</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-189.90000</t>
+          <t>-179.10000</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1006.09000</t>
+          <t>1008.79000</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-30.8200</t>
+          <t>-30.6200</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-3.7000</t>
+          <t>-2.3300</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-36.52490</t>
+          <t>-36.54000</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>49.99510</t>
+          <t>49.98000</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17.24</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-78.3600</t>
+          <t>-78.1600</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-3.7900</t>
+          <t>-3.8500</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-88.31270</t>
+          <t>-88.34000</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-160.61270</t>
+          <t>-160.64000</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>705.00</t>
+          <t>709.00</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2190,11 +2190,11 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0393</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2204,27 +2204,27 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-27.4700</t>
+          <t>-23.4700</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.0375</t>
+          <t>-0.0320</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-22.00000</t>
+          <t>-19.00000</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-48.55000</t>
+          <t>-42.55000</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1055.00</t>
+          <t>1073.00</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2268,11 +2268,11 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2282,27 +2282,27 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-33.7100</t>
+          <t>-15.7200</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.0310</t>
+          <t>-0.0144</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-31.09000</t>
+          <t>-15.09000</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>35.15000</t>
+          <t>52.15000</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1397.00</t>
+          <t>1411.00</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-83.9500</t>
+          <t>-69.9600</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-0.0567</t>
+          <t>-0.0472</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-17.00000</t>
+          <t>-8.00000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>233.71000</t>
+          <t>248.71000</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>504.00</t>
+          <t>506.00</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2424,11 +2424,11 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.0466</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2438,22 +2438,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-23.3300</t>
+          <t>-21.3300</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-0.0442</t>
+          <t>-0.0404</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-23.34000</t>
+          <t>-22.34000</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4492.00</t>
+          <t>4548.00</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22.46</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>9.869999999999999</v>
+        <v>9.91</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2516,27 +2516,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-158.0300</t>
+          <t>-102.0600</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-0.0340</t>
+          <t>-0.0219</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.0991</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-102.20000</t>
+          <t>-82.20000</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-24.95000</t>
+          <t>21.05000</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2180.00</t>
+          <t>2229.00</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21.80</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2580,11 +2580,11 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4.79</v>
+        <v>4.86</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2594,27 +2594,27 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-165.9200</t>
+          <t>-116.9400</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-0.0707</t>
+          <t>-0.0498</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17.00000</t>
+          <t>58.00000</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-165.64000</t>
+          <t>-115.64000</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1803.00</t>
+          <t>1824.00</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2658,11 +2658,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2672,27 +2672,27 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-56.2100</t>
+          <t>-35.2300</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-0.0302</t>
+          <t>-0.0189</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-57.24000</t>
+          <t>-42.24000</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-84.40000</t>
+          <t>-65.40000</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>492.00</t>
+          <t>495.00</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-4.3300</t>
+          <t>-1.3300</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-0.0087</t>
+          <t>-0.0027</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-5.00000</t>
+          <t>-2.00000</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-2.37000</t>
+          <t>0.63000</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>902.00</t>
+          <t>918.00</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2814,11 +2814,11 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2828,27 +2828,27 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-22.9200</t>
+          <t>-6.9300</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-0.0248</t>
+          <t>-0.0075</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-28.00000</t>
+          <t>-14.00000</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-13.00000</t>
+          <t>1.00000</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.0573</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2906,12 +2906,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-273.3800</t>
+          <t>-273.1800</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-5.4200</t>
+          <t>-4.8200</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-257.31880</t>
+          <t>-257.38000</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-242.13880</t>
+          <t>-242.20000</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4480.00</t>
+          <t>4470.00</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2970,11 +2970,11 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>9.84</v>
+        <v>9.74</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2984,27 +2984,27 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-123.0000</t>
+          <t>-133.0100</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-0.0267</t>
+          <t>-0.0289</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.0984</t>
+          <t>0.0974</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-112.92000</t>
+          <t>-122.92000</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-124.00000</t>
+          <t>-114.00000</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>730.00</t>
+          <t>738.00</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3048,11 +3048,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3062,27 +3062,27 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-21.4900</t>
+          <t>-13.4900</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-0.0286</t>
+          <t>-0.0179</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-19.06000</t>
+          <t>-13.06000</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-29.58000</t>
+          <t>-23.58000</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4123.00</t>
+          <t>4214.00</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>41.23</t>
+          <t>42.14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3126,11 +3126,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9.06</v>
+        <v>9.18</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.0320</t>
+          <t>-0.0529</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3140,27 +3140,27 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>132.2500</t>
+          <t>223.1900</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>141.66000</t>
+          <t>225.66000</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-183.00000</t>
+          <t>-98.00000</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>644.00</t>
+          <t>659.00</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3204,11 +3204,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>-0.0080</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3218,27 +3218,27 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-9.4300</t>
+          <t>5.5500</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-0.0144</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-23.00000</t>
+          <t>-12.00000</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>182.69000</t>
+          <t>198.69000</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1507.00</t>
+          <t>1514.00</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3282,11 +3282,11 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.0284</t>
+          <t>-0.0329</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3296,27 +3296,27 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>43.0000</t>
+          <t>49.9900</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>45.88000</t>
+          <t>50.88000</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>43.88000</t>
+          <t>50.88000</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>493.00</t>
+          <t>495.00</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3374,12 +3374,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-8.3300</t>
+          <t>-6.3300</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-0.0166</t>
+          <t>-0.0126</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-11.00000</t>
+          <t>-10.00000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>23.95000</t>
+          <t>24.95000</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-51.8700</t>
+          <t>-51.6700</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-5.4700</t>
+          <t>-4.3100</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-51.65840</t>
+          <t>-51.67000</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>186.62160</t>
+          <t>186.61000</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>668.00</t>
+          <t>669.00</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3516,11 +3516,11 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3530,17 +3530,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-18.4500</t>
+          <t>-17.4500</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-0.0269</t>
+          <t>-0.0254</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-33.96000</t>
+          <t>-32.96000</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1950.00</t>
+          <t>1952.00</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3594,11 +3594,11 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>0.0356</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3608,27 +3608,27 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-71.3200</t>
+          <t>-69.3200</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-0.0353</t>
+          <t>-0.0343</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-74.17000</t>
+          <t>-68.17000</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-61.50000</t>
+          <t>-62.50000</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18.64</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3686,12 +3686,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-55.4600</t>
+          <t>-55.2600</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-3.4200</t>
+          <t>-2.5900</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-55.23490</t>
+          <t>-55.26000</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-55.23490</t>
+          <t>-55.26000</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5189.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>54.0150</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>51.89</t>
+          <t>51.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3851,41 +3851,37 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>-1.0000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-212.5100</t>
+          <t>-230.5900</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.0393</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.0000</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-231.51000</t>
+          <t>-230.62470</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-193.51000</t>
+          <t>-230.62470</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Account_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Account_position.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-19 21:56:25</t>
+          <t>2025-09-21 09:45:31</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-19 21:56:25</t>
+          <t>2025-09-21 09:45:32</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-19 21:56:23</t>
+          <t>2025-09-21 09:45:28</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-19 21:56:26</t>
+          <t>2025-09-21 09:45:33</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,55 +669,60 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>当日涨幅/当日盈亏率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏率</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>当前价</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>持仓天数</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>持仓占比</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>回本涨幅</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>持有数量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏率</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>累积盈亏</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>本周盈亏</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>今年盈亏</t>
         </is>
@@ -731,73 +736,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002600</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>东信和平</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>2472.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-130.00</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>-0.0500</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>-197.2300</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+          <t>-0.0739</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>26.6920</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-1.0000</t>
+          <t>24.72</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-99.9600</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>13.69</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-99.96010</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-99.96010</t>
+          <t>-197.2300</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-197.2300</t>
         </is>
       </c>
     </row>
@@ -809,73 +821,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>002865</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东信和平</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2472.00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>4274.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-89.00</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26.6920</t>
+          <t>-0.0204</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>-496.5400</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>18.56</v>
+          <t>-0.1041</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>47.7050</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-197.2300</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-0.0739</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-197.23000</t>
+          <t>0.3208</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-197.23000</t>
+          <t>-258.1300</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-496.5400</t>
         </is>
       </c>
     </row>
@@ -887,73 +906,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002865</t>
+          <t>002536</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4274.00</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>2650.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-126.00</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47.7050</t>
+          <t>-0.0454</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>42.74</t>
+          <t>57.7800</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>32.08</v>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>25.9220</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1162</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-0.0218</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-496.5400</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-0.1041</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.3208</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-258.13000</t>
+          <t>0.1989</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-496.54000</t>
+          <t>-3.7100</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>112.0800</t>
         </is>
       </c>
     </row>
@@ -965,73 +991,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002536</t>
+          <t>002484</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>江海股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2650.00</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>3162.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-56.2700</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25.9220</t>
+          <t>-0.0175</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26.50</t>
+          <t>-56.2700</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>19.89</v>
+          <t>-0.0175</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>32.1830</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.0218</t>
+          <t>31.62</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>57.7800</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.1989</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-3.71000</t>
+          <t>0.2374</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>112.08000</t>
+          <t>-56.2700</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-56.2700</t>
         </is>
       </c>
     </row>
@@ -1043,151 +1076,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002484</t>
+          <t>002177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>江海股份</t>
+          <t>御银股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3162.00</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>763.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-14.00</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>32.1830</t>
+          <t>-0.0180</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>-799.7800</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>23.74</v>
+          <t>-0.5118</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15.6280</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.0482</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-56.2700</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-0.0175</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.2374</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-56.33790</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-56.33790</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>763.00</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15.6280</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.0482</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-799.7800</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-0.5118</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-64.38000</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-799.78000</t>
+          <t>-64.3800</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-259.3800</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,55 +1200,60 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>当日涨幅/当日盈亏率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏率</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>当前价</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>持仓天数</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>持仓占比</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>回本涨幅</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>持有数量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏率</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>累积盈亏</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>本周盈亏</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>今年盈亏</t>
         </is>
@@ -1300,73 +1267,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>805.00</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>4548.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-42.00</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.0770</t>
+          <t>-0.0092</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>-102.0600</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1.75</v>
+          <t>-0.0219</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23.2520</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-2.5400</t>
-        </is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>7.36</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.0031</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-12.00000</t>
+          <t>0.0991</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>113.54000</t>
+          <t>-82.2000</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>37.2400</t>
         </is>
       </c>
     </row>
@@ -1378,73 +1352,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002856</t>
+          <t>002998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美芝股份</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>805.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.7200</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>-2.5400</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+          <t>-0.0031</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8.0770</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-61.6900</t>
-        </is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1.3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-5.4100</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-61.69000</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-61.69000</t>
+          <t>-12.0000</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>113.5400</t>
         </is>
       </c>
     </row>
@@ -1456,73 +1437,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>631.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-7.00</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.1400</t>
+          <t>-0.0110</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>-40.4300</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+          <t>-0.0602</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6.7170</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-37.9300</t>
-        </is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.5500</t>
+          <t>0.0645</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-25.74000</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-30.86000</t>
+          <t>-31.0000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-42.4500</t>
         </is>
       </c>
     </row>
@@ -1534,73 +1522,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>631.00</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>1239.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-22.00</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.7170</t>
+          <t>-0.0174</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>-11.7100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1.37</v>
+          <t>-0.0094</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12.5090</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0645</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-40.4300</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-0.0602</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-31.00000</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-47.51000</t>
+          <t>-59.0000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3.1300</t>
         </is>
       </c>
     </row>
@@ -1612,73 +1607,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1239.00</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>2229.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.5090</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>-116.9400</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2.7</v>
+          <t>-0.0498</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23.4620</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-11.7100</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-0.0094</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-59.00000</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-10.98000</t>
+          <t>58.0000</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>166.7400</t>
         </is>
       </c>
     </row>
@@ -1703,60 +1705,67 @@
           <t>1640.00</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-57.6700</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-0.0340</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>8.4890</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>8.20</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>0.0352</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-57.6700</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>-0.0340</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>0.0357</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-55.07000</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-56.71000</t>
+          <t>-55.0700</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-46.6400</t>
         </is>
       </c>
     </row>
@@ -1768,73 +1777,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>756.00</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>1824.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-21.00</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.7970</t>
+          <t>-0.0114</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>-35.2300</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1.65</v>
+          <t>-0.0189</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>18.5950</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-23.5100</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-0.0302</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-36.52000</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2.88000</t>
+          <t>-42.2400</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-65.4000</t>
         </is>
       </c>
     </row>
@@ -1846,73 +1862,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>600917</t>
+          <t>600925</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>575.00</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>495.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.8060</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>-1.3300</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1.25</v>
+          <t>-0.0027</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.9650</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-5.3900</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-0.0093</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-5.05000</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-2.22000</t>
+          <t>-2.0000</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.6300</t>
         </is>
       </c>
     </row>
@@ -1924,73 +1947,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>511380</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>可转债ETF</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11841.300</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
+          <t>918.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.0360</t>
+          <t>-0.0022</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.157</t>
+          <t>-6.9300</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>25.79</v>
+          <t>-0.0075</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4.6260</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.0852</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1008.6700</t>
-        </is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1.49</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.2579</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-179.10000</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1008.79000</t>
+          <t>-14.0000</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>7.0400</t>
         </is>
       </c>
     </row>
@@ -2002,73 +2032,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>756.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-8.00</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.4600</t>
+          <t>-0.0105</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>-23.5100</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+          <t>-0.0302</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7.7970</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-30.6200</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1.22</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-2.3300</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-36.54000</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>49.98000</t>
+          <t>-36.5200</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>14.9400</t>
         </is>
       </c>
     </row>
@@ -2080,73 +2117,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603172</t>
+          <t>600917</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+          <t>575.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17.9200</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>-5.3900</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+          <t>-0.0093</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5.8060</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-78.1600</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-3.8500</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-88.34000</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-160.64000</t>
+          <t>-5.0500</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-2.2200</t>
         </is>
       </c>
     </row>
@@ -2158,73 +2202,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600080</t>
+          <t>511380</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>709.00</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+          <t>11841.300</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-81.900</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.3270</t>
+          <t>-0.0069</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>1008.6700</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1.54</v>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12.0360</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>13.157</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-23.4700</t>
-        </is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>19.16</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.0320</t>
+          <t>-0.0852</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>900</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-19.00000</t>
+          <t>0.2579</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-42.55000</t>
+          <t>-179.1000</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>600.1900</t>
         </is>
       </c>
     </row>
@@ -2236,73 +2287,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>603331</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>百达精工</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1073.00</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+          <t>4470.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-190.00</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.8890</t>
+          <t>-0.0408</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>-133.0100</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2.34</v>
+          <t>-0.0289</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4.6030</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-15.7200</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>7.23</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.0144</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-15.09000</t>
+          <t>0.0974</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>52.15000</t>
+          <t>-122.9200</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-107.9600</t>
         </is>
       </c>
     </row>
@@ -2314,73 +2372,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>600080</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1411.00</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+          <t>709.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-6.00</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14.8120</t>
+          <t>-0.0084</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14.11</t>
+          <t>-23.4700</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3.07</v>
+          <t>-0.0320</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>7.3270</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-69.9600</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-0.0472</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-8.00000</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>248.71000</t>
+          <t>-19.0000</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-42.5500</t>
         </is>
       </c>
     </row>
@@ -2392,73 +2457,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>506.00</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>738.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.2750</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>-13.4900</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1.1</v>
+          <t>-0.0179</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>7.5170</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.0425</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-21.3300</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-0.0404</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-22.34000</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-18.72000</t>
+          <t>-13.0600</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-20.4800</t>
         </is>
       </c>
     </row>
@@ -2470,73 +2542,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>603322</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4548.00</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+          <t>4214.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>23.2520</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>223.1900</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>9.91</v>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>39.9090</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>42.14</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-102.0600</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>6.82</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-0.0219</t>
+          <t>-0.0529</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.0991</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-82.20000</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>21.05000</t>
+          <t>225.6600</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-450.9500</t>
         </is>
       </c>
     </row>
@@ -2548,73 +2627,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2229.00</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+          <t>659.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>23.4620</t>
+          <t>-0.0030</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>5.5500</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>4.86</v>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6.5370</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-0.0080</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-116.9400</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>-0.0498</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>58.00000</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-115.64000</t>
+          <t>-12.0000</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-106.4600</t>
         </is>
       </c>
     </row>
@@ -2626,73 +2712,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>002890</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1824.00</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+          <t>1514.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18.5950</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18.24</t>
+          <t>49.9900</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>3.97</v>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>14.6420</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.0329</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-35.2300</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-0.0189</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-42.24000</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-65.40000</t>
+          <t>50.8800</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>50.8800</t>
         </is>
       </c>
     </row>
@@ -2704,12 +2797,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2717,60 +2810,67 @@
           <t>495.00</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-5.00</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.9650</t>
+          <t>-0.0100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>-6.3300</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-0.0126</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5.0150</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-1.3300</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-0.0027</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>0.0108</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-2.00000</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.63000</t>
+          <t>-10.0000</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>29.9900</t>
         </is>
       </c>
     </row>
@@ -2782,73 +2882,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>603331</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>918.00</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>1073.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.6260</t>
+          <t>-0.0019</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>-15.7200</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
+          <t>-0.0144</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10.8890</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-6.9300</t>
-        </is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1.74</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-0.0075</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-14.00000</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.00000</t>
+          <t>-15.0900</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-34.1800</t>
         </is>
       </c>
     </row>
@@ -2860,73 +2967,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000785</t>
+          <t>603122</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+          <t>669.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-15.00</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.3200</t>
+          <t>-0.0219</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>-17.4500</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>-0.0254</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6.8670</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-273.1800</t>
-        </is>
+      <c r="L22" t="n">
+        <v>1.08</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-4.8200</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.0000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-257.38000</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-242.20000</t>
+          <t>-17.0600</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-32.9600</t>
         </is>
       </c>
     </row>
@@ -2938,73 +3052,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>603137</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4470.00</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+          <t>1411.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.6030</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-69.9600</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>9.74</v>
+          <t>-0.0472</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>14.8120</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-133.0100</t>
-        </is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2.28</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-0.0289</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.0974</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-122.92000</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-114.00000</t>
+          <t>-8.0000</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-105.5100</t>
         </is>
       </c>
     </row>
@@ -3016,73 +3137,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>738.00</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
+          <t>506.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-5.00</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.5170</t>
+          <t>-0.0098</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>-21.3300</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1.61</v>
+          <t>-0.0404</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5.2750</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-13.4900</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>-0.0179</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-13.06000</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-23.58000</t>
+          <t>-22.3400</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-14.6800</t>
         </is>
       </c>
     </row>
@@ -3094,619 +3222,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>603322</t>
+          <t>001260</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4214.00</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+          <t>1952.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-28.00</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>39.9090</t>
+          <t>-0.0141</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42.14</t>
+          <t>-69.3200</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>9.18</v>
+          <t>-0.0343</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20.2150</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.0529</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>223.1900</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>225.66000</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-98.00000</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>659.00</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.5370</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-0.0080</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>5.5500</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-12.00000</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>198.69000</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002890</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>弘宇股份</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1514.00</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>14.6420</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-0.0329</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>49.9900</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>50.88000</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>50.88000</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>495.00</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.0150</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>-6.3300</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>-0.0126</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-10.00000</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>24.95000</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>605567</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10.4300</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-51.6700</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>-4.3100</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-51.67000</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>186.61000</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>603122</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>669.00</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.8670</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-17.4500</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>-0.0254</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-17.06000</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-32.96000</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1952.00</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>20.2150</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-69.3200</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>-0.0343</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-68.17000</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>-62.50000</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>600137</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>浪莎股份</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>19.3000</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>18.80</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-55.2600</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>-2.5900</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-55.26000</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-55.26000</t>
+          <t>-68.1700</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-99.3300</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3757,55 +3346,60 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>当日涨幅/当日盈亏率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>持有盈亏率</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>成本价</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>当前价</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>持仓天数</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>持仓占比</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>回本涨幅</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>持有数量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>持有盈亏率</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>累积盈亏</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>本周盈亏</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>今年盈亏</t>
         </is>
@@ -3832,56 +3426,63 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-50.0800</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.0096</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-230.5900</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>51.28</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>-1.0000</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>-230.5900</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-230.62470</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-230.62470</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-227.51000</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Account_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Account_position.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="账户汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="川财证券" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长城证券" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中泰证券" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中山证券_表头" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中山证券" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="账户汇总" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,194 +430,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>仓位</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总资产</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>总市值</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>浮动盈亏</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>可用</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>可取</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>仓位 100%</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11,790.90</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,790.90</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+958.27</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>仓位 0%</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>仓位 17.5%</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>52,131.97</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9,138.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-1,475.50</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>993.4299999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>993.4299999999999</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>仓位 52.6%</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>55,937.98</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>29,418.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+1,594.35</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>519.45</v>
-      </c>
-      <c r="F5" t="n">
-        <v>519.45</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>中山证券</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -718,7 +531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -736,7 +549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -829,10 +642,8 @@
       <c r="H2" t="n">
         <v>27.32</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
+      <c r="I2" t="n">
+        <v>2536</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -865,10 +676,8 @@
       <c r="H3" t="n">
         <v>32.59</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>002484</t>
-        </is>
+      <c r="I3" t="n">
+        <v>2484</v>
       </c>
       <c r="J3" t="n">
         <v>6</v>
@@ -901,10 +710,8 @@
       <c r="H4" t="n">
         <v>24.06</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
+      <c r="I4" t="n">
+        <v>2017</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -937,13 +744,94 @@
       <c r="H5" t="n">
         <v>7.41</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
+      <c r="I5" t="n">
+        <v>2177</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>仓位</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总市值</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>浮动盈亏</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>可取</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>仓位 59.6%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>55,544.30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>33,125.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+1,199.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,167.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>519.95</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1020,69 +908,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>信质集团</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18940</v>
+        <v>15965</v>
       </c>
       <c r="C2" t="n">
-        <v>1438.33</v>
+        <v>-36.53</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>156.02</v>
+        <v>-36.53</v>
       </c>
       <c r="F2" t="n">
-        <v>8.215999999999999</v>
+        <v>-0.228</v>
       </c>
       <c r="G2" t="n">
-        <v>8.750999999999999</v>
+        <v>32.003</v>
       </c>
       <c r="H2" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>600577</v>
+        <v>31.93</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>002664</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>东材科技</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10478</v>
+        <v>17160</v>
       </c>
       <c r="C3" t="n">
-        <v>156.02</v>
+        <v>-417.68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.02</v>
+        <v>-417.68</v>
       </c>
       <c r="F3" t="n">
-        <v>1.511</v>
+        <v>-2.376</v>
       </c>
       <c r="G3" t="n">
-        <v>103.22</v>
+        <v>21.972</v>
       </c>
       <c r="H3" t="n">
-        <v>104.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>603259</v>
+        <v>21.45</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>601208</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>账户名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>仓位</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>总市值</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>浮动盈亏</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>可取</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中山证券</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>仓位 59.6%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>55,544.30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33,125.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>+1,199.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5,167.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>519.95</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Account_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Account_position.xlsx
@@ -805,32 +805,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仓位 59.6%</t>
+          <t>仓位 14.4%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>55,544.30</t>
+          <t>119,699.69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>33,125.00</t>
+          <t>17,296.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1,199.58</t>
+          <t>-162.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,167.15</t>
+          <t>102,395.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>519.95</t>
+          <t>86,275.30</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,73 +908,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>信质集团</t>
+          <t>东材科技</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15965</v>
+        <v>17296</v>
       </c>
       <c r="C2" t="n">
-        <v>-36.53</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E2" t="n">
-        <v>-36.53</v>
+        <v>-281.68</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.228</v>
+        <v>-1.602</v>
       </c>
       <c r="G2" t="n">
-        <v>32.003</v>
+        <v>21.972</v>
       </c>
       <c r="H2" t="n">
-        <v>31.93</v>
+        <v>21.62</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>002664</t>
+          <t>601208</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>东材科技</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17160</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-417.68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-417.68</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-2.376</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.972</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>601208</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1041,32 +1005,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>仓位 59.6%</t>
+          <t>仓位 14.4%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>55,544.30</t>
+          <t>119,699.69</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33,125.00</t>
+          <t>17,296.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+1,199.58</t>
+          <t>-162.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5,167.15</t>
+          <t>102,395.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>519.95</t>
+          <t>86,275.30</t>
         </is>
       </c>
     </row>
